--- a/data/trans_dic/P25A_N_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_N_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas discapacitantes</t>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,77</t>
+          <t>2,5; 9,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,73</t>
+          <t>2,73; 9,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,11</t>
+          <t>3,74; 11,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,16</t>
+          <t>6,89; 17,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 17,07</t>
+          <t>9,45; 18,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,17</t>
+          <t>9,43; 19,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,79</t>
+          <t>9,77; 19,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,41</t>
+          <t>15,5; 28,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,46</t>
+          <t>7,02; 13,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 13,56</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 14,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 21,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,84</t>
+          <t>5,97; 16,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,95</t>
+          <t>3,92; 13,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,18</t>
+          <t>3,73; 16,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 18,97</t>
+          <t>8,04; 20,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,09</t>
+          <t>6,18; 16,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 21,97</t>
+          <t>7,19; 19,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 14,22</t>
+          <t>10,58; 23,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,81</t>
+          <t>17,34; 39,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,25</t>
+          <t>7,07; 14,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 14,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 16,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,95; 26,84</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 22,89</t>
+          <t>4,77; 37,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 22,66</t>
+          <t>2,21; 24,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 15,45</t>
+          <t>1,97; 24,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 19,97</t>
+          <t>0,0; 17,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 24,6</t>
+          <t>0,0; 15,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 26,85</t>
+          <t>5,51; 29,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 17,96</t>
+          <t>2,63; 22,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 19,43</t>
+          <t>7,23; 32,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 17,67</t>
+          <t>4,43; 22,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 20,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 18,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 22,4</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,92</t>
+          <t>6,13; 12,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,57</t>
+          <t>4,43; 9,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,3</t>
+          <t>4,92; 11,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,61</t>
+          <t>8,15; 15,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 15,6</t>
+          <t>8,56; 15,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,53</t>
+          <t>10,08; 17,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,11</t>
+          <t>11,39; 18,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,53</t>
+          <t>18,03; 29,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,52</t>
+          <t>8,18; 12,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 12,62</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 13,73</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 21,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22337</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19828</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26471</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59784</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70509</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>60102</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59220</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121570</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>92845</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79930</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>85691</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>181354</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10762; 39942</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9993; 36129</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14234; 44124</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35550; 91721</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48088; 96009</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39707; 80919</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39826; 79921</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>87390; 161048</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65865; 126014</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59442; 106777</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61920; 114449</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>137664; 231659</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39513</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24061</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25791</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55406</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>44345</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41601</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>52561</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108483</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83858</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65662</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>78353</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>163888</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21447; 59893</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12466; 42581</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12042; 52401</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33159; 82605</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26276; 68366</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24326; 65805</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>35430; 77753</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>75123; 171999</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55496; 116725</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44580; 96041</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>55169; 110099</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>117991; 226924</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17234</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7026</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6572</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11491</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8547</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20161</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22713</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18516</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15453</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26733</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4858; 37654</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1757; 19240</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1688; 21007</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20676</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15999</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4497; 24165</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2172; 18516</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8055; 36102</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8986; 45683</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7651; 33356</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6208; 31444</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11895; 51691</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>79083</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50915</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>59169</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>121762</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>120334</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>113194</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>120328</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>250213</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>199416</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164108</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>179497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>371975</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54605; 106914</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33849; 75393</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38792; 89736</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>85362; 163815</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>88668; 159451</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84760; 143268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93973; 152292</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>199757; 327237</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>157674; 247787</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>130034; 202624</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>142202; 221687</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>298589; 463658</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
